--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/CE/10/seed1/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/CE/10/seed1/result_data_KNN.xlsx
@@ -502,7 +502,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>-12.372</v>
+        <v>-12.292</v>
       </c>
       <c r="D4" t="n">
         <v>-8.23</v>
@@ -553,13 +553,13 @@
         <v>9.43</v>
       </c>
       <c r="C7" t="n">
-        <v>-13.106</v>
+        <v>-12.909</v>
       </c>
       <c r="D7" t="n">
         <v>-9.359999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>16.19</v>
+        <v>16.374</v>
       </c>
     </row>
     <row r="8">
@@ -695,7 +695,7 @@
         <v>-10.04</v>
       </c>
       <c r="E15" t="n">
-        <v>16.054</v>
+        <v>16.21</v>
       </c>
     </row>
     <row r="16">
@@ -706,7 +706,7 @@
         <v>3.96</v>
       </c>
       <c r="C16" t="n">
-        <v>-13.376</v>
+        <v>-13.377</v>
       </c>
       <c r="D16" t="n">
         <v>-9.27</v>
@@ -797,7 +797,7 @@
         <v>-6.74</v>
       </c>
       <c r="E21" t="n">
-        <v>16.438</v>
+        <v>16.557</v>
       </c>
     </row>
     <row r="22">
@@ -814,7 +814,7 @@
         <v>-6.8</v>
       </c>
       <c r="E22" t="n">
-        <v>16.678</v>
+        <v>16.647</v>
       </c>
     </row>
     <row r="23">
@@ -831,7 +831,7 @@
         <v>-8.59</v>
       </c>
       <c r="E23" t="n">
-        <v>16.602</v>
+        <v>16.434</v>
       </c>
     </row>
     <row r="24">
@@ -910,7 +910,7 @@
         <v>5.47</v>
       </c>
       <c r="C28" t="n">
-        <v>-13.066</v>
+        <v>-13.219</v>
       </c>
       <c r="D28" t="n">
         <v>-7.75</v>
@@ -927,7 +927,7 @@
         <v>7.52</v>
       </c>
       <c r="C29" t="n">
-        <v>-11.614</v>
+        <v>-11.736</v>
       </c>
       <c r="D29" t="n">
         <v>-7.09</v>
@@ -978,7 +978,7 @@
         <v>3.16</v>
       </c>
       <c r="C32" t="n">
-        <v>-13.612</v>
+        <v>-13.434</v>
       </c>
       <c r="D32" t="n">
         <v>-8.69</v>
@@ -1018,7 +1018,7 @@
         <v>-7.27</v>
       </c>
       <c r="E34" t="n">
-        <v>17.014</v>
+        <v>16.907</v>
       </c>
     </row>
     <row r="35">
@@ -1114,7 +1114,7 @@
         <v>10.75</v>
       </c>
       <c r="C40" t="n">
-        <v>-12.988</v>
+        <v>-12.232</v>
       </c>
       <c r="D40" t="n">
         <v>-7.23</v>
@@ -1171,7 +1171,7 @@
         <v>-6.95</v>
       </c>
       <c r="E43" t="n">
-        <v>17.592</v>
+        <v>17.219</v>
       </c>
     </row>
     <row r="44">
@@ -1205,7 +1205,7 @@
         <v>-7.87</v>
       </c>
       <c r="E45" t="n">
-        <v>16.156</v>
+        <v>16.696</v>
       </c>
     </row>
     <row r="46">
@@ -1290,7 +1290,7 @@
         <v>-8.029999999999999</v>
       </c>
       <c r="E50" t="n">
-        <v>16.614</v>
+        <v>16.433</v>
       </c>
     </row>
     <row r="51">
@@ -1307,7 +1307,7 @@
         <v>-7.18</v>
       </c>
       <c r="E51" t="n">
-        <v>16.934</v>
+        <v>16.77</v>
       </c>
     </row>
     <row r="52">
@@ -1318,7 +1318,7 @@
         <v>6.39</v>
       </c>
       <c r="C52" t="n">
-        <v>-11.362</v>
+        <v>-11.355</v>
       </c>
       <c r="D52" t="n">
         <v>-6.93</v>
@@ -1403,7 +1403,7 @@
         <v>4.82</v>
       </c>
       <c r="C57" t="n">
-        <v>-13.376</v>
+        <v>-13.829</v>
       </c>
       <c r="D57" t="n">
         <v>-8.31</v>
@@ -1556,13 +1556,13 @@
         <v>5.18</v>
       </c>
       <c r="C66" t="n">
-        <v>-10.766</v>
+        <v>-11.598</v>
       </c>
       <c r="D66" t="n">
         <v>-7.15</v>
       </c>
       <c r="E66" t="n">
-        <v>17.14</v>
+        <v>17.157</v>
       </c>
     </row>
     <row r="67">
@@ -1579,7 +1579,7 @@
         <v>-6.43</v>
       </c>
       <c r="E67" t="n">
-        <v>16.85</v>
+        <v>17.398</v>
       </c>
     </row>
     <row r="68">
@@ -1783,7 +1783,7 @@
         <v>-4.8</v>
       </c>
       <c r="E79" t="n">
-        <v>17.36</v>
+        <v>17.017</v>
       </c>
     </row>
     <row r="80">
@@ -1868,7 +1868,7 @@
         <v>-8.34</v>
       </c>
       <c r="E84" t="n">
-        <v>16.052</v>
+        <v>16.492</v>
       </c>
     </row>
     <row r="85">
@@ -2004,7 +2004,7 @@
         <v>-5.32</v>
       </c>
       <c r="E92" t="n">
-        <v>17.654</v>
+        <v>17.797</v>
       </c>
     </row>
     <row r="93">
@@ -2089,7 +2089,7 @@
         <v>-7.59</v>
       </c>
       <c r="E97" t="n">
-        <v>16.634</v>
+        <v>16.77</v>
       </c>
     </row>
     <row r="98">
@@ -2134,7 +2134,7 @@
         <v>5.09</v>
       </c>
       <c r="C100" t="n">
-        <v>-12.992</v>
+        <v>-13.108</v>
       </c>
       <c r="D100" t="n">
         <v>-7.71</v>
